--- a/HTML/0 Excel SRC Files/4 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/4 Excel.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24EFA40-25AF-463F-9CCA-B2A845126E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673655A2-3CB0-41E5-A319-ED425A08A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="Marketing" sheetId="5" r:id="rId2"/>
-    <sheet name="Inside" sheetId="6" r:id="rId3"/>
-    <sheet name="Reviews" sheetId="2" r:id="rId4"/>
-    <sheet name="Styles" sheetId="3" r:id="rId5"/>
-    <sheet name="Maintinance" sheetId="4" r:id="rId6"/>
-    <sheet name="English" sheetId="7" r:id="rId7"/>
+    <sheet name="influencer " sheetId="9" r:id="rId2"/>
+    <sheet name="Marketing" sheetId="5" r:id="rId3"/>
+    <sheet name="Inside" sheetId="6" r:id="rId4"/>
+    <sheet name="Reviews" sheetId="2" r:id="rId5"/>
+    <sheet name="Styles" sheetId="3" r:id="rId6"/>
+    <sheet name="Maintinance" sheetId="4" r:id="rId7"/>
+    <sheet name="English" sheetId="7" r:id="rId8"/>
+    <sheet name="Home Furniture" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -437,9 +439,6 @@
     <t>7ESL Learning English</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Inside</t>
   </si>
   <si>
@@ -449,23 +448,230 @@
     <t>Style</t>
   </si>
   <si>
-    <t>Maintinance</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>سمير مصطفى</t>
   </si>
   <si>
     <t>محمود سمير</t>
+  </si>
+  <si>
+    <t>Google Alerts</t>
+  </si>
+  <si>
+    <t>[العقارات]</t>
+  </si>
+  <si>
+    <t>[Jobs]</t>
+  </si>
+  <si>
+    <t>[Egy Official]</t>
+  </si>
+  <si>
+    <t>[صيانة]</t>
+  </si>
+  <si>
+    <t>وليد عيسي</t>
+  </si>
+  <si>
+    <t>Cairo Time</t>
+  </si>
+  <si>
+    <t>[Health]</t>
+  </si>
+  <si>
+    <t>الجزيرة الوثائقية</t>
+  </si>
+  <si>
+    <t>DW عربية</t>
+  </si>
+  <si>
+    <t>DW وثائقية</t>
+  </si>
+  <si>
+    <t>cleanup.pictures</t>
+  </si>
+  <si>
+    <t>[Law]</t>
+  </si>
+  <si>
+    <t>DR. Same7 8zaly</t>
+  </si>
+  <si>
+    <t>Alaa Elwakil</t>
+  </si>
+  <si>
+    <t>Mr SunY</t>
+  </si>
+  <si>
+    <t>Stumpy Nubs</t>
+  </si>
+  <si>
+    <t>i Fixit</t>
+  </si>
+  <si>
+    <t>العالميه لصيانة الاجهزه المنزليه</t>
+  </si>
+  <si>
+    <t>مركز سلمي</t>
+  </si>
+  <si>
+    <t>Mahara</t>
+  </si>
+  <si>
+    <t>Taskty</t>
+  </si>
+  <si>
+    <t>El Handasia</t>
+  </si>
+  <si>
+    <t>Fixawy</t>
+  </si>
+  <si>
+    <t>Primo</t>
+  </si>
+  <si>
+    <t>Mody.Han</t>
+  </si>
+  <si>
+    <t>IT Ministry</t>
+  </si>
+  <si>
+    <t>Write Sonic</t>
+  </si>
+  <si>
+    <t>Bing AI IMG</t>
+  </si>
+  <si>
+    <t>Query AI</t>
+  </si>
+  <si>
+    <t>Text2SQL AI</t>
+  </si>
+  <si>
+    <t>فاتورة الكهرباء</t>
+  </si>
+  <si>
+    <t>فاتورة المياه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">influencer </t>
+  </si>
+  <si>
+    <t>د/ سمسم</t>
+  </si>
+  <si>
+    <t>احمد مختار</t>
+  </si>
+  <si>
+    <t>محمد الشريف</t>
+  </si>
+  <si>
+    <t>طارق الرفاعي</t>
+  </si>
+  <si>
+    <t>رمزي عبدالعزيز</t>
+  </si>
+  <si>
+    <t>محمد خالد</t>
+  </si>
+  <si>
+    <t>شريف ياسر</t>
+  </si>
+  <si>
+    <t>المواطن سعيد</t>
+  </si>
+  <si>
+    <t>م/ محمد سيد</t>
+  </si>
+  <si>
+    <t>محمود خالد</t>
+  </si>
+  <si>
+    <t>عبدالله الوهيبي</t>
+  </si>
+  <si>
+    <t>amira farouk</t>
+  </si>
+  <si>
+    <t>أميمه عبدالله</t>
+  </si>
+  <si>
+    <t>كريم مسلم</t>
+  </si>
+  <si>
+    <t>محمود علام</t>
+  </si>
+  <si>
+    <t>عمرو عبدالعزيز</t>
+  </si>
+  <si>
+    <t>مادي البحيري</t>
+  </si>
+  <si>
+    <t>عماد الشريف</t>
+  </si>
+  <si>
+    <t>محمد فوكس</t>
+  </si>
+  <si>
+    <t>ميسم مجدي</t>
+  </si>
+  <si>
+    <t>أشجان يحيى</t>
+  </si>
+  <si>
+    <t>حسان عابد</t>
+  </si>
+  <si>
+    <t>Fatmhisoka</t>
+  </si>
+  <si>
+    <t>bassem elgarhi</t>
+  </si>
+  <si>
+    <t>الحاوي عوض</t>
+  </si>
+  <si>
+    <t>Walid Taha</t>
+  </si>
+  <si>
+    <t>امير شريف</t>
+  </si>
+  <si>
+    <t>محمود فهيم</t>
+  </si>
+  <si>
+    <t>محمد يحيي</t>
+  </si>
+  <si>
+    <t>هشام هارون</t>
+  </si>
+  <si>
+    <t>محمد صبري</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>تامر احمد</t>
+  </si>
+  <si>
+    <t>STJ Egypt</t>
+  </si>
+  <si>
+    <t>[English]</t>
+  </si>
+  <si>
+    <t>[Decor &amp; Furniture]</t>
+  </si>
+  <si>
+    <t>[Marketing]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +792,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -626,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,10 +893,19 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,233 +1189,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="21.140625" style="3"/>
+    <col min="2" max="2" width="23" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="21.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>132</v>
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>166</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="17" spans="6:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="6:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18"/>
-      <c r="G18"/>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:C9"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{FA395CBE-EAAA-483F-BD8D-3959D25DFA82}"/>
-    <hyperlink ref="G8" r:id="rId2" xr:uid="{70408868-D036-4B4D-B7DF-49DAC3F10E87}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{F7871FBF-5A84-449D-B515-AD52BBAC4D60}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{EA14D84C-F5A1-4DFA-B68D-EA2B996FCE19}"/>
-    <hyperlink ref="A9" r:id="rId5" xr:uid="{CC579078-1D25-453B-AF3C-E81122BB7139}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{8A40AA89-C5B1-4F06-90F8-893C30F4D6AE}"/>
-    <hyperlink ref="C1" location="Marketing!A1" display="Marketing" xr:uid="{74BBB501-3802-4909-B97C-DEB34138C251}"/>
-    <hyperlink ref="A1" location="Inside!A1" display="Inside" xr:uid="{6A503366-1E86-422A-8B76-47A23D9AB10A}"/>
-    <hyperlink ref="B1" location="Reviews!A1" display="Reviews" xr:uid="{67E6C3D7-8CB0-4222-A3B9-59BF302FF1EF}"/>
-    <hyperlink ref="D1" location="Styles!A1" display="Style" xr:uid="{8F4DD310-8507-4148-A381-99A3F28E6D61}"/>
-    <hyperlink ref="E1" location="Maintinance!A1" display="Maintinance" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
-    <hyperlink ref="F1" location="English!A1" display="English" xr:uid="{8136A837-048F-466C-B9D8-1423BE88CE20}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{8A40AA89-C5B1-4F06-90F8-893C30F4D6AE}"/>
+    <hyperlink ref="A1" location="Marketing!A1" display="Marketing" xr:uid="{74BBB501-3802-4909-B97C-DEB34138C251}"/>
+    <hyperlink ref="G1" location="Inside!A1" display="Inside" xr:uid="{6A503366-1E86-422A-8B76-47A23D9AB10A}"/>
+    <hyperlink ref="F6" location="Reviews!A1" display="Reviews" xr:uid="{67E6C3D7-8CB0-4222-A3B9-59BF302FF1EF}"/>
+    <hyperlink ref="F7" location="Styles!A1" display="Style" xr:uid="{8F4DD310-8507-4148-A381-99A3F28E6D61}"/>
+    <hyperlink ref="G6" location="Maintinance!A1" display="Maintinance" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
+    <hyperlink ref="E7" location="English!A1" display="English" xr:uid="{8136A837-048F-466C-B9D8-1423BE88CE20}"/>
+    <hyperlink ref="D7" location="'Home Furniture'!A1" display="Home Furniture" xr:uid="{527A723E-9555-4C0D-87D6-20F76FF9CEC1}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://www.google.com/alerts" xr:uid="{63141A91-7BC2-4C56-955D-3DCDD321B717}"/>
+    <hyperlink ref="G3" r:id="rId4" display="../333/Home.htm" xr:uid="{708502A4-AC9B-4959-8F37-3E1F7D47F7F6}"/>
+    <hyperlink ref="G2" r:id="rId5" display="../Jobs.htm" xr:uid="{76A456D3-FA32-4765-AED9-E883E86A1CED}"/>
+    <hyperlink ref="G7" r:id="rId6" display="../333/Egypt_Official.html" xr:uid="{6C97A8A7-80E1-4075-BE65-238E19B621B1}"/>
+    <hyperlink ref="B2" r:id="rId7" display="https://tipyan.com/" xr:uid="{91F68607-36F1-4C78-8045-1EDAE8118191}"/>
+    <hyperlink ref="E1" r:id="rId8" display="https://www.youtube.com/c/WalidIssaPlus/videos" xr:uid="{ABFC01D4-61BD-4D4D-B13A-5FD4BDFFC1BA}"/>
+    <hyperlink ref="C1" r:id="rId9" display="https://www.stjegypt.com/" xr:uid="{2E0073C7-3A84-484C-ADB4-1875E46919CF}"/>
+    <hyperlink ref="D1" r:id="rId10" display="https://www.facebook.com/cairotime" xr:uid="{E6233D28-C160-43C4-BF6C-4CCCAD04AE52}"/>
+    <hyperlink ref="C3" r:id="rId11" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
+    <hyperlink ref="B3" r:id="rId12" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
+    <hyperlink ref="A3" r:id="rId13" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
+    <hyperlink ref="F3" r:id="rId14" display="https://cleanup.pictures/" xr:uid="{3F6CD886-2776-4BFC-9B45-1B265A0CF030}"/>
+    <hyperlink ref="G5" r:id="rId15" display="../333/Law.html" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
+    <hyperlink ref="F4" r:id="rId16" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
+    <hyperlink ref="G4" r:id="rId17" display="../333/Health.html" xr:uid="{CE52743F-A90D-4DCA-BDC0-5EAF4BCBFF5C}"/>
+    <hyperlink ref="B1" r:id="rId18" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
+    <hyperlink ref="A4" r:id="rId19" display="https://writesonic.com/" xr:uid="{AB1B0C6C-DF29-47BA-AD18-7FC70CBF946F}"/>
+    <hyperlink ref="B4" r:id="rId20" display="https://www.bing.com/images/create" xr:uid="{17282D83-D8CF-41E6-8006-B311742A3FE5}"/>
+    <hyperlink ref="C4" r:id="rId21" display="https://www.query.ai/" xr:uid="{32701286-D48A-485B-8564-8C8DAF842DCF}"/>
+    <hyperlink ref="D4" r:id="rId22" display="https://www.text2sql.ai/" xr:uid="{ACC23F75-6FD9-42C7-85E3-3C86A9B4E08A}"/>
+    <hyperlink ref="B7" r:id="rId23" display="https://ncedc.gov.eg/Home/Invoice" xr:uid="{9C581524-E056-40AE-89CD-431E9667EA73}"/>
+    <hyperlink ref="C7" r:id="rId24" display="http://www.gcwc.com.eg/" xr:uid="{FDD6EAF8-462A-4E72-8659-0FF0A92E26F5}"/>
+    <hyperlink ref="A2" location="'influencer '!A1" display="influencer " xr:uid="{A3888F0B-3845-41C2-83E5-08F2671FC187}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F7D403-D96E-4061-9ED1-B00D0326990F}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.facebook.com/profile.php?id=100068861236184" xr:uid="{EDC601CB-10BB-478E-AEE5-C35D90AA74CF}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
+    <hyperlink ref="E1" r:id="rId5" display="https://www.facebook.com/EducationClinicRA" xr:uid="{9C199B90-A06F-47E3-9FB7-0EA2EA121145}"/>
+    <hyperlink ref="F1" r:id="rId6" display="https://www.facebook.com/mohamedkhaled.nigm" xr:uid="{7B0509D8-C7DE-4120-9DC1-0722BB0C34EC}"/>
+    <hyperlink ref="G1" r:id="rId7" display="https://www.facebook.com/sherifyasserofficial" xr:uid="{FD0F9C51-E129-4EEF-A055-E8E97161C34A}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.youtube.com/@Ahmed_Said/videos" xr:uid="{8227DE4D-B0CC-419F-A961-003479E2E540}"/>
+    <hyperlink ref="B2" r:id="rId9" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
+    <hyperlink ref="C2" r:id="rId10" display="https://www.youtube.com/user/engmahmoudkhaled/videos" xr:uid="{6F77BAF1-4E99-4FEB-BF61-CE31271FB83F}"/>
+    <hyperlink ref="D2" r:id="rId11" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
+    <hyperlink ref="E2" r:id="rId12" display="https://www.facebook.com/amira.farouk.71" xr:uid="{935469F1-97C0-41C3-97C0-176E337A5B6D}"/>
+    <hyperlink ref="F2" r:id="rId13" display="https://www.facebook.com/profile.php?id=100014234160493" xr:uid="{59554BDC-2CF2-4555-9C81-2163955C30BF}"/>
+    <hyperlink ref="G2" r:id="rId14" display="https://www.facebook.com/KarimMesallamProfile" xr:uid="{6ED8BD85-AC10-4845-BBA3-4BAA07B00703}"/>
+    <hyperlink ref="A3" r:id="rId15" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
+    <hyperlink ref="B3" r:id="rId16" display="https://www.youtube.com/@AmrAbdolaziz/videos" xr:uid="{9EC6914D-820F-4DAD-8CC7-BB92DD23D833}"/>
+    <hyperlink ref="C3" r:id="rId17" display="https://www.facebook.com/Prof.Dr.MadyElbahri" xr:uid="{4B4DCAD2-0386-4560-BC72-2932D5A7A3A6}"/>
+    <hyperlink ref="D3" r:id="rId18" display="https://www.facebook.com/emad.e.sherif" xr:uid="{7ED31B22-5EF7-4CFA-B499-F059643295C0}"/>
+    <hyperlink ref="E3" r:id="rId19" display="https://www.facebook.com/xfoxawyx/" xr:uid="{8392354A-5270-40E3-AF9B-50F9E360B62E}"/>
+    <hyperlink ref="F3" r:id="rId20" display="https://www.facebook.com/maysam.magdy.56?mibextid=ZbWKwL" xr:uid="{82BEC16A-B970-4C2A-BE3C-8A9786AD8C2C}"/>
+    <hyperlink ref="A4" r:id="rId21" display="https://www.facebook.com/ashyahia" xr:uid="{9501F0C8-6925-4AE1-A7DB-8D8E449E24AC}"/>
+    <hyperlink ref="B4" r:id="rId22" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
+    <hyperlink ref="C4" r:id="rId23" display="https://www.facebook.com/Fatmhisoka1" xr:uid="{FEE80C0C-8187-4AB7-A40B-5E7E406A443B}"/>
+    <hyperlink ref="D4" r:id="rId24" display="https://www.youtube.com/@bassemelgarhi/videos" xr:uid="{9FB181FE-62BB-4CCB-A930-0CE3CF1568B8}"/>
+    <hyperlink ref="E4" r:id="rId25" display="https://www.facebook.com/amgad1964" xr:uid="{6308914C-D269-47F2-9768-1CABEB9F864E}"/>
+    <hyperlink ref="F4" r:id="rId26" display="https://www.youtube.com/@WalidTaha/videos" xr:uid="{EB6FE786-E465-40A7-B27A-C305EEB716C7}"/>
+    <hyperlink ref="G3" r:id="rId27" display="https://www.facebook.com/ameer.sherif" xr:uid="{A571CC42-51C0-4046-9DFF-8B57CF063C05}"/>
+    <hyperlink ref="A5" r:id="rId28" display="https://www.facebook.com/muhammed.faheim" xr:uid="{A6CBBD5C-DE05-4738-BC8D-F1886CF3E6F2}"/>
+    <hyperlink ref="B5" r:id="rId29" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
+    <hyperlink ref="C5" r:id="rId30" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
+    <hyperlink ref="D5" r:id="rId31" display="https://www.facebook.com/Dr.Sabry.M" xr:uid="{26FDD1C5-D1AB-4BE8-9507-63E814295A0F}"/>
+    <hyperlink ref="E5" r:id="rId32" display="https://www.pinterest.com/" xr:uid="{0709D5F9-F9BD-4AA6-872A-907B922C04C6}"/>
+    <hyperlink ref="F5" r:id="rId33" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351CB7F5-0732-4C7D-AB4A-38AEE92C8DA0}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1343,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04494E5-1D25-4ED8-AAEC-AE66E69D915C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -1379,7 +1768,7 @@
         <v>86</v>
       </c>
       <c r="I1" s="8"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>85</v>
       </c>
       <c r="K1" s="8"/>
@@ -1433,10 +1822,10 @@
         <v>71</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1681,7 +2070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DCF25D-37FD-4AC8-BA1C-E71F038EDA79}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -1907,7 +2296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFA2A42-DC7F-4C10-B6E7-6226B96DD03C}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -2107,44 +2496,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EBAE04-CE5D-484A-B110-BB80EB69EBB2}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2155,148 +2580,99 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2308,13 +2684,26 @@
     <hyperlink ref="A7" r:id="rId6" display="https://www.facebook.com/groups/1186371621480897/" xr:uid="{D6F195B5-7B7D-4A96-8833-655FD9DB6B03}"/>
     <hyperlink ref="A11" r:id="rId7" display="https://www.facebook.com/groups/1781709402139678/" xr:uid="{10E1129E-F1F0-4989-BBD5-B8B8D8C0B7E7}"/>
     <hyperlink ref="A15" r:id="rId8" display="https://www.facebook.com/groups/mouhammadezziah/" xr:uid="{2D0E83E6-B388-4498-BAF0-3D28A030D40D}"/>
-    <hyperlink ref="A8" r:id="rId9" display="https://www.facebook.com/groups/3280900041938149/" xr:uid="{E7A48B73-F7E9-4D1A-9627-54DB4C8AE9C4}"/>
+    <hyperlink ref="D8" r:id="rId9" display="https://www.facebook.com/groups/3280900041938149/" xr:uid="{E7A48B73-F7E9-4D1A-9627-54DB4C8AE9C4}"/>
+    <hyperlink ref="B1" r:id="rId10" display="https://www.youtube.com/c/AlaaElwakilTHINGS/videos" xr:uid="{024C41D6-0548-48C2-8B2E-06518E7311ED}"/>
+    <hyperlink ref="C1" r:id="rId11" display="https://www.youtube.com/channel/UCpzYeWbOFwHztPgliIB8f_g/videos" xr:uid="{3B7CF9AF-50DD-4A31-AC9B-E18017D152CB}"/>
+    <hyperlink ref="D1" r:id="rId12" display="https://www.youtube.com/c/StumpyNubs/videos" xr:uid="{98E4C9D6-B923-4262-A2F1-2570773E6570}"/>
+    <hyperlink ref="E1" r:id="rId13" display="https://www.youtube.com/user/iFixitYourself/videos" xr:uid="{763A44B4-C2E4-4F11-9733-4C2E3189C06E}"/>
+    <hyperlink ref="F1" r:id="rId14" display="https://www.youtube.com/channel/UCWHv8H8xJm6ZngPq6CvJTtQ/videos" xr:uid="{9E7CC8B6-B4AB-4CAA-BF05-6E8FB4D22D3A}"/>
+    <hyperlink ref="G1" r:id="rId15" display="https://www.facebook.com/elsaied1021969" xr:uid="{9E25E864-56A0-40A1-921F-3FF47A3C47E4}"/>
+    <hyperlink ref="B2" r:id="rId16" display="https://www.maharaeg.com/index-ar.html" xr:uid="{66A78799-7BC9-4B4C-8075-AE41DFB0CB2A}"/>
+    <hyperlink ref="C2" r:id="rId17" display="https://taskty.com/" xr:uid="{6F2B5510-7212-4652-A782-B6636DD443CC}"/>
+    <hyperlink ref="D2" r:id="rId18" display="https://elhandasiaegypt.com/" xr:uid="{2EFDBC15-3144-4717-BAA9-CFE50B1F143C}"/>
+    <hyperlink ref="E2" r:id="rId19" display="https://www.facebook.com/fixawy" xr:uid="{862E4C2A-D825-482D-9CBB-C8C9C8C556A9}"/>
+    <hyperlink ref="F2" r:id="rId20" display="https://primo-service.com/" xr:uid="{53332980-97AD-41AD-A4F9-61EE36893639}"/>
+    <hyperlink ref="G2" r:id="rId21" display="https://www.facebook.com/Mody.Han.egypt" xr:uid="{8070E2DA-2299-4BED-9A73-549540D8C289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED1C50F-26BA-4ED1-A375-A592C5366ED0}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2515,4 +2904,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24D1FBA-92FA-4245-AAEB-394E50DA2CEA}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{EA14D84C-F5A1-4DFA-B68D-EA2B996FCE19}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{F7871FBF-5A84-449D-B515-AD52BBAC4D60}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{70408868-D036-4B4D-B7DF-49DAC3F10E87}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{FA395CBE-EAAA-483F-BD8D-3959D25DFA82}"/>
+    <hyperlink ref="E1" r:id="rId5" xr:uid="{CC579078-1D25-453B-AF3C-E81122BB7139}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>